--- a/Data/Transitions/19561973Translation.xlsx
+++ b/Data/Transitions/19561973Translation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="969" uniqueCount="685">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="969" uniqueCount="684">
   <si>
     <t>id</t>
   </si>
@@ -595,7 +595,7 @@
     <t>{319.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 0.6871389480085133}</t>
+    <t>{242.0: 1.0}</t>
   </si>
   <si>
     <t>{398.0: 1.0}</t>
@@ -1715,9 +1715,6 @@
   </si>
   <si>
     <t>{315.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{320.0: 1.0}</t>
   </si>
   <si>
     <t>{400.0: 0.9874941009910335, 50.0: 0.008788675988621757, 96.0: 0.0017704710454288894, 100.0: 0.0019467519749158475}</t>
@@ -4541,7 +4538,7 @@
         <v>193</v>
       </c>
       <c r="C192" t="s">
-        <v>567</v>
+        <v>193</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -4574,7 +4571,7 @@
         <v>196</v>
       </c>
       <c r="C195" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -4585,7 +4582,7 @@
         <v>197</v>
       </c>
       <c r="C196" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -4596,7 +4593,7 @@
         <v>198</v>
       </c>
       <c r="C197" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -4607,7 +4604,7 @@
         <v>199</v>
       </c>
       <c r="C198" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -4618,7 +4615,7 @@
         <v>200</v>
       </c>
       <c r="C199" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -4662,7 +4659,7 @@
         <v>204</v>
       </c>
       <c r="C203" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -4728,7 +4725,7 @@
         <v>210</v>
       </c>
       <c r="C209" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -4772,7 +4769,7 @@
         <v>214</v>
       </c>
       <c r="C213" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -4783,7 +4780,7 @@
         <v>215</v>
       </c>
       <c r="C214" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -4805,7 +4802,7 @@
         <v>217</v>
       </c>
       <c r="C216" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -4882,7 +4879,7 @@
         <v>224</v>
       </c>
       <c r="C223" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -4904,7 +4901,7 @@
         <v>226</v>
       </c>
       <c r="C225" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -4915,7 +4912,7 @@
         <v>227</v>
       </c>
       <c r="C226" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -4926,7 +4923,7 @@
         <v>228</v>
       </c>
       <c r="C227" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -4948,7 +4945,7 @@
         <v>230</v>
       </c>
       <c r="C229" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -4992,7 +4989,7 @@
         <v>234</v>
       </c>
       <c r="C233" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -5003,7 +5000,7 @@
         <v>235</v>
       </c>
       <c r="C234" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -5014,7 +5011,7 @@
         <v>236</v>
       </c>
       <c r="C235" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -5025,7 +5022,7 @@
         <v>237</v>
       </c>
       <c r="C236" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -5036,7 +5033,7 @@
         <v>238</v>
       </c>
       <c r="C237" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -5168,7 +5165,7 @@
         <v>250</v>
       </c>
       <c r="C249" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -5179,7 +5176,7 @@
         <v>251</v>
       </c>
       <c r="C250" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -5223,7 +5220,7 @@
         <v>255</v>
       </c>
       <c r="C254" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -5234,7 +5231,7 @@
         <v>256</v>
       </c>
       <c r="C255" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -5311,7 +5308,7 @@
         <v>263</v>
       </c>
       <c r="C262" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -5322,7 +5319,7 @@
         <v>264</v>
       </c>
       <c r="C263" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -5355,7 +5352,7 @@
         <v>267</v>
       </c>
       <c r="C266" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -5377,7 +5374,7 @@
         <v>269</v>
       </c>
       <c r="C268" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -5388,7 +5385,7 @@
         <v>270</v>
       </c>
       <c r="C269" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -5399,7 +5396,7 @@
         <v>271</v>
       </c>
       <c r="C270" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="271" spans="1:3">
@@ -5432,7 +5429,7 @@
         <v>274</v>
       </c>
       <c r="C273" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="274" spans="1:3">
@@ -5454,7 +5451,7 @@
         <v>276</v>
       </c>
       <c r="C275" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="276" spans="1:3">
@@ -5465,7 +5462,7 @@
         <v>277</v>
       </c>
       <c r="C276" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="277" spans="1:3">
@@ -5476,7 +5473,7 @@
         <v>278</v>
       </c>
       <c r="C277" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="278" spans="1:3">
@@ -5509,7 +5506,7 @@
         <v>281</v>
       </c>
       <c r="C280" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="281" spans="1:3">
@@ -5531,7 +5528,7 @@
         <v>283</v>
       </c>
       <c r="C282" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="283" spans="1:3">
@@ -5542,7 +5539,7 @@
         <v>284</v>
       </c>
       <c r="C283" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="284" spans="1:3">
@@ -5564,7 +5561,7 @@
         <v>286</v>
       </c>
       <c r="C285" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="286" spans="1:3">
@@ -5586,7 +5583,7 @@
         <v>288</v>
       </c>
       <c r="C287" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="288" spans="1:3">
@@ -5597,7 +5594,7 @@
         <v>289</v>
       </c>
       <c r="C288" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="289" spans="1:3">
@@ -5608,7 +5605,7 @@
         <v>290</v>
       </c>
       <c r="C289" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="290" spans="1:3">
@@ -5652,7 +5649,7 @@
         <v>294</v>
       </c>
       <c r="C293" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="294" spans="1:3">
@@ -5663,7 +5660,7 @@
         <v>295</v>
       </c>
       <c r="C294" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="295" spans="1:3">
@@ -5696,7 +5693,7 @@
         <v>298</v>
       </c>
       <c r="C297" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="298" spans="1:3">
@@ -5729,7 +5726,7 @@
         <v>301</v>
       </c>
       <c r="C300" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="301" spans="1:3">
@@ -5784,7 +5781,7 @@
         <v>306</v>
       </c>
       <c r="C305" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="306" spans="1:3">
@@ -5795,7 +5792,7 @@
         <v>307</v>
       </c>
       <c r="C306" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="307" spans="1:3">
@@ -5828,7 +5825,7 @@
         <v>310</v>
       </c>
       <c r="C309" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="310" spans="1:3">
@@ -5850,7 +5847,7 @@
         <v>312</v>
       </c>
       <c r="C311" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="312" spans="1:3">
@@ -5916,7 +5913,7 @@
         <v>318</v>
       </c>
       <c r="C317" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="318" spans="1:3">
@@ -5938,7 +5935,7 @@
         <v>320</v>
       </c>
       <c r="C319" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="320" spans="1:3">
@@ -5949,7 +5946,7 @@
         <v>321</v>
       </c>
       <c r="C320" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="321" spans="1:3">
@@ -5971,7 +5968,7 @@
         <v>323</v>
       </c>
       <c r="C322" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="323" spans="1:3">
@@ -6026,7 +6023,7 @@
         <v>328</v>
       </c>
       <c r="C327" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="328" spans="1:3">
@@ -6048,7 +6045,7 @@
         <v>330</v>
       </c>
       <c r="C329" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="330" spans="1:3">
@@ -6103,7 +6100,7 @@
         <v>335</v>
       </c>
       <c r="C334" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="335" spans="1:3">
@@ -6114,7 +6111,7 @@
         <v>336</v>
       </c>
       <c r="C335" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="336" spans="1:3">
@@ -6125,7 +6122,7 @@
         <v>337</v>
       </c>
       <c r="C336" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="337" spans="1:3">
@@ -6136,7 +6133,7 @@
         <v>338</v>
       </c>
       <c r="C337" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="338" spans="1:3">
@@ -6147,7 +6144,7 @@
         <v>339</v>
       </c>
       <c r="C338" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="339" spans="1:3">
@@ -6158,7 +6155,7 @@
         <v>340</v>
       </c>
       <c r="C339" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="340" spans="1:3">
@@ -6213,7 +6210,7 @@
         <v>345</v>
       </c>
       <c r="C344" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="345" spans="1:3">
@@ -6235,7 +6232,7 @@
         <v>347</v>
       </c>
       <c r="C346" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="347" spans="1:3">
@@ -6246,7 +6243,7 @@
         <v>348</v>
       </c>
       <c r="C347" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="348" spans="1:3">
@@ -6279,7 +6276,7 @@
         <v>351</v>
       </c>
       <c r="C350" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="351" spans="1:3">
@@ -6290,7 +6287,7 @@
         <v>352</v>
       </c>
       <c r="C351" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="352" spans="1:3">
@@ -6334,7 +6331,7 @@
         <v>356</v>
       </c>
       <c r="C355" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="356" spans="1:3">
@@ -6367,7 +6364,7 @@
         <v>359</v>
       </c>
       <c r="C358" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="359" spans="1:3">
@@ -6378,7 +6375,7 @@
         <v>360</v>
       </c>
       <c r="C359" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="360" spans="1:3">
@@ -6411,7 +6408,7 @@
         <v>363</v>
       </c>
       <c r="C362" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="363" spans="1:3">
@@ -6422,7 +6419,7 @@
         <v>364</v>
       </c>
       <c r="C363" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="364" spans="1:3">
@@ -6455,7 +6452,7 @@
         <v>367</v>
       </c>
       <c r="C366" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="367" spans="1:3">
@@ -6466,7 +6463,7 @@
         <v>368</v>
       </c>
       <c r="C367" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="368" spans="1:3">
@@ -6477,7 +6474,7 @@
         <v>369</v>
       </c>
       <c r="C368" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="369" spans="1:3">
@@ -6510,7 +6507,7 @@
         <v>372</v>
       </c>
       <c r="C371" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="372" spans="1:3">
@@ -6554,7 +6551,7 @@
         <v>376</v>
       </c>
       <c r="C375" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="376" spans="1:3">
@@ -6730,7 +6727,7 @@
         <v>392</v>
       </c>
       <c r="C391" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="392" spans="1:3">
@@ -6785,7 +6782,7 @@
         <v>397</v>
       </c>
       <c r="C396" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="397" spans="1:3">
@@ -6796,7 +6793,7 @@
         <v>398</v>
       </c>
       <c r="C397" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="398" spans="1:3">
@@ -6829,7 +6826,7 @@
         <v>401</v>
       </c>
       <c r="C400" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="401" spans="1:3">
@@ -6840,7 +6837,7 @@
         <v>402</v>
       </c>
       <c r="C401" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="402" spans="1:3">
@@ -6851,7 +6848,7 @@
         <v>403</v>
       </c>
       <c r="C402" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="403" spans="1:3">
@@ -6873,7 +6870,7 @@
         <v>405</v>
       </c>
       <c r="C404" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="405" spans="1:3">
@@ -6884,7 +6881,7 @@
         <v>406</v>
       </c>
       <c r="C405" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="406" spans="1:3">
@@ -6895,7 +6892,7 @@
         <v>407</v>
       </c>
       <c r="C406" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="407" spans="1:3">
@@ -6906,7 +6903,7 @@
         <v>408</v>
       </c>
       <c r="C407" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="408" spans="1:3">
@@ -6917,7 +6914,7 @@
         <v>409</v>
       </c>
       <c r="C408" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="409" spans="1:3">
@@ -6928,7 +6925,7 @@
         <v>410</v>
       </c>
       <c r="C409" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="410" spans="1:3">
@@ -6939,7 +6936,7 @@
         <v>411</v>
       </c>
       <c r="C410" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="411" spans="1:3">
@@ -6983,7 +6980,7 @@
         <v>415</v>
       </c>
       <c r="C414" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="415" spans="1:3">
@@ -7005,7 +7002,7 @@
         <v>417</v>
       </c>
       <c r="C416" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="417" spans="1:3">
@@ -7027,7 +7024,7 @@
         <v>419</v>
       </c>
       <c r="C418" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="419" spans="1:3">
@@ -7049,7 +7046,7 @@
         <v>421</v>
       </c>
       <c r="C420" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="421" spans="1:3">
@@ -7104,7 +7101,7 @@
         <v>426</v>
       </c>
       <c r="C425" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="426" spans="1:3">
@@ -7159,7 +7156,7 @@
         <v>431</v>
       </c>
       <c r="C430" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="431" spans="1:3">
@@ -7170,7 +7167,7 @@
         <v>432</v>
       </c>
       <c r="C431" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="432" spans="1:3">
@@ -7181,7 +7178,7 @@
         <v>433</v>
       </c>
       <c r="C432" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="433" spans="1:3">
@@ -7236,7 +7233,7 @@
         <v>438</v>
       </c>
       <c r="C437" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="438" spans="1:3">
@@ -7247,7 +7244,7 @@
         <v>439</v>
       </c>
       <c r="C438" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="439" spans="1:3">
@@ -7258,7 +7255,7 @@
         <v>440</v>
       </c>
       <c r="C439" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="440" spans="1:3">
@@ -7269,7 +7266,7 @@
         <v>441</v>
       </c>
       <c r="C440" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="441" spans="1:3">
@@ -7280,7 +7277,7 @@
         <v>442</v>
       </c>
       <c r="C441" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="442" spans="1:3">
@@ -7291,7 +7288,7 @@
         <v>443</v>
       </c>
       <c r="C442" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="443" spans="1:3">
@@ -7313,7 +7310,7 @@
         <v>445</v>
       </c>
       <c r="C444" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="445" spans="1:3">
@@ -7335,7 +7332,7 @@
         <v>447</v>
       </c>
       <c r="C446" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="447" spans="1:3">
@@ -7412,7 +7409,7 @@
         <v>454</v>
       </c>
       <c r="C453" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="454" spans="1:3">
@@ -7445,7 +7442,7 @@
         <v>457</v>
       </c>
       <c r="C456" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="457" spans="1:3">
@@ -7478,7 +7475,7 @@
         <v>460</v>
       </c>
       <c r="C459" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="460" spans="1:3">
@@ -7511,7 +7508,7 @@
         <v>463</v>
       </c>
       <c r="C462" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="463" spans="1:3">
@@ -7544,7 +7541,7 @@
         <v>466</v>
       </c>
       <c r="C465" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="466" spans="1:3">
@@ -7566,7 +7563,7 @@
         <v>468</v>
       </c>
       <c r="C467" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="468" spans="1:3">
@@ -7588,7 +7585,7 @@
         <v>470</v>
       </c>
       <c r="C469" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="470" spans="1:3">
@@ -7610,7 +7607,7 @@
         <v>472</v>
       </c>
       <c r="C471" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="472" spans="1:3">
@@ -7621,7 +7618,7 @@
         <v>473</v>
       </c>
       <c r="C472" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="473" spans="1:3">
@@ -7643,7 +7640,7 @@
         <v>475</v>
       </c>
       <c r="C474" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="475" spans="1:3">
@@ -7654,7 +7651,7 @@
         <v>476</v>
       </c>
       <c r="C475" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="476" spans="1:3">
@@ -7753,7 +7750,7 @@
         <v>485</v>
       </c>
       <c r="C484" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
   </sheetData>
